--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Profile</t>
   </si>
@@ -47,28 +47,49 @@
     <t>Method</t>
   </si>
   <si>
+    <t>LTCObservationFallingHistory</t>
+  </si>
+  <si>
+    <t>TWLTC Observation Falling History</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#101440-6</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (preferred)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
     <t>LTCObservationVitalSigns</t>
   </si>
   <si>
     <t>TWLTC Observation Vital Signs</t>
   </si>
   <si>
-    <t>null#vital-signs</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/vital-signs-tw (extensible)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
   </si>
 </sst>
 </file>
@@ -202,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -257,24 +278,59 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="159">
   <si>
     <t>Profile</t>
   </si>
@@ -50,7 +50,7 @@
     <t>LTCObservationFallingHistory</t>
   </si>
   <si>
-    <t>TWLTC Observation Falling History</t>
+    <t>安全防護－跌倒紀錄</t>
   </si>
   <si>
     <t>Observation Category Codes#survey</t>
@@ -77,7 +77,7 @@
     <t>LTCObservationVitalSigns</t>
   </si>
   <si>
-    <t>TWLTC Observation Vital Signs</t>
+    <t>長期照顧－生命體徵</t>
   </si>
   <si>
     <t>Observation Category Codes#vital-signs</t>
@@ -90,6 +90,405 @@
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>PASportObservationBasalMetabolicRate</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－基礎代謝率</t>
+  </si>
+  <si>
+    <t>null#165109007</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>PASportObservationBloodPressure</t>
+  </si>
+  <si>
+    <t>基礎生理量測－血壓</t>
+  </si>
+  <si>
+    <t>null#85354-9</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>PASportObservationBodyAge</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－體內年齡</t>
+  </si>
+  <si>
+    <t>null#BodyAge</t>
+  </si>
+  <si>
+    <t>PASportObservationBodyBoneMass</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－推定骨量</t>
+  </si>
+  <si>
+    <t>null#101685-6</t>
+  </si>
+  <si>
+    <t>PASportObservationBodyFatMass</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－體脂肪重</t>
+  </si>
+  <si>
+    <t>null#73708-0</t>
+  </si>
+  <si>
+    <t>PASportObservationBodyFatPercentage</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－體脂率</t>
+  </si>
+  <si>
+    <t>null#41982-0</t>
+  </si>
+  <si>
+    <t>PASportObservationBodyMassIndex</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－身體質量指數</t>
+  </si>
+  <si>
+    <t>null#39156-5</t>
+  </si>
+  <si>
+    <t>PASportObservationBodyTemperature</t>
+  </si>
+  <si>
+    <t>基礎生理量測－體溫</t>
+  </si>
+  <si>
+    <t>null#8310-5</t>
+  </si>
+  <si>
+    <t>PASportObservationCellMass</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－細胞量</t>
+  </si>
+  <si>
+    <t>null#BodyCellMass</t>
+  </si>
+  <si>
+    <t>PASportObservationExtracellularWater</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－細胞外水分</t>
+  </si>
+  <si>
+    <t>null#ECW</t>
+  </si>
+  <si>
+    <t>PASportObservationExtracellularWaterRatio</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－水腫指數</t>
+  </si>
+  <si>
+    <t>null#ECWRatio</t>
+  </si>
+  <si>
+    <t>PASportObservationFatFreeMass</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－去脂體重</t>
+  </si>
+  <si>
+    <t>null#91557-9</t>
+  </si>
+  <si>
+    <t>PASportObservationGaitCycle</t>
+  </si>
+  <si>
+    <t>穿戴裝置－步態週期</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#activity</t>
+  </si>
+  <si>
+    <t>null#363837002</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>身體活動量測-步態週期#1</t>
+  </si>
+  <si>
+    <t>身體活動量測-步態週期#2</t>
+  </si>
+  <si>
+    <t>PASportObservationGaitType</t>
+  </si>
+  <si>
+    <t>穿戴裝置－步態分析</t>
+  </si>
+  <si>
+    <t>null#298302000</t>
+  </si>
+  <si>
+    <t>SNOMED CT#811702</t>
+  </si>
+  <si>
+    <t>SNOMED CT#264739002</t>
+  </si>
+  <si>
+    <t>SNOMED CT#264730003</t>
+  </si>
+  <si>
+    <t>PASportObservationGlucose</t>
+  </si>
+  <si>
+    <t>基礎生理量測－血糖</t>
+  </si>
+  <si>
+    <t>null#2339-0</t>
+  </si>
+  <si>
+    <t>PASportObservationHeartRate</t>
+  </si>
+  <si>
+    <t>基礎生理量測－心率</t>
+  </si>
+  <si>
+    <t>null#8867-4</t>
+  </si>
+  <si>
+    <t>PASportObservationHeartRateVariability</t>
+  </si>
+  <si>
+    <t>基礎生理量測－心率變異性</t>
+  </si>
+  <si>
+    <t>null#80404-7</t>
+  </si>
+  <si>
+    <t>PASportObservationHeight</t>
+  </si>
+  <si>
+    <t>基礎生理量測－身高</t>
+  </si>
+  <si>
+    <t>null#8302-2</t>
+  </si>
+  <si>
+    <t>PASportObservationIntracellularWater</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－細胞內水分</t>
+  </si>
+  <si>
+    <t>null#ICW</t>
+  </si>
+  <si>
+    <t>PASportObservationMeanHeartRate</t>
+  </si>
+  <si>
+    <t>基礎生理量測－平均心率</t>
+  </si>
+  <si>
+    <t>null#103205-1</t>
+  </si>
+  <si>
+    <t>PASportObservationMineral</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－礦物質重</t>
+  </si>
+  <si>
+    <t>null#Mineral</t>
+  </si>
+  <si>
+    <t>PASportObservationObesityDegree</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－肥胖度</t>
+  </si>
+  <si>
+    <t>null#ObesityDegree</t>
+  </si>
+  <si>
+    <t>PASportObservationPeripheralOxygenSaturation</t>
+  </si>
+  <si>
+    <t>基礎生理量測－脈搏血氧飽和度</t>
+  </si>
+  <si>
+    <t>null#2708-6</t>
+  </si>
+  <si>
+    <t>PASportObservationProtein</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－蛋白質重</t>
+  </si>
+  <si>
+    <t>null#Protein</t>
+  </si>
+  <si>
+    <t>PASportObservationRespiratoryRate</t>
+  </si>
+  <si>
+    <t>基礎生理量測－呼吸速率</t>
+  </si>
+  <si>
+    <t>null#9279-1</t>
+  </si>
+  <si>
+    <t>PASportObservationRestingHeartRate</t>
+  </si>
+  <si>
+    <t>基礎生理量測－安靜心率</t>
+  </si>
+  <si>
+    <t>null#40443-4</t>
+  </si>
+  <si>
+    <t>PASportObservationSkeletalMuscleMass</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－骨骼肌重</t>
+  </si>
+  <si>
+    <t>null#SMM</t>
+  </si>
+  <si>
+    <t>PASportObservationSkeletalMuscleMassIndex</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－肌肉質量指數</t>
+  </si>
+  <si>
+    <t>null#SMI</t>
+  </si>
+  <si>
+    <t>PASportObservationSoftLeanMass</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－肌肉量</t>
+  </si>
+  <si>
+    <t>null#SLM</t>
+  </si>
+  <si>
+    <t>PASportObservationTotalBodyWater</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－身體總水分</t>
+  </si>
+  <si>
+    <t>null#101683-1</t>
+  </si>
+  <si>
+    <t>PASportObservationTreadmill</t>
+  </si>
+  <si>
+    <t>運動項目－跑步機</t>
+  </si>
+  <si>
+    <t>http://ltc-ig.fhir.tw/ValueSet/TreadmillTypeVS-Sport (required)</t>
+  </si>
+  <si>
+    <t>LOINC#55411-3</t>
+  </si>
+  <si>
+    <t>LOINC#55412-1</t>
+  </si>
+  <si>
+    <t>LOINC#55421-2</t>
+  </si>
+  <si>
+    <t>SNOMED CT#252141006</t>
+  </si>
+  <si>
+    <t>LOINC#101692-2</t>
+  </si>
+  <si>
+    <t>LOINC#103205-1</t>
+  </si>
+  <si>
+    <t>SNOMED CT#252140007</t>
+  </si>
+  <si>
+    <t>PASportObservationVisceralFatArea</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－內臟脂肪面積</t>
+  </si>
+  <si>
+    <t>null#73707-2</t>
+  </si>
+  <si>
+    <t>PASportObservationVisceralFatIndex</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－內臟脂肪指數</t>
+  </si>
+  <si>
+    <t>null#VFI</t>
+  </si>
+  <si>
+    <t>PASportObservationWaist</t>
+  </si>
+  <si>
+    <t>基礎生理量測－腰圍</t>
+  </si>
+  <si>
+    <t>null#8280-0</t>
+  </si>
+  <si>
+    <t>PASportObservationWaistHipRate</t>
+  </si>
+  <si>
+    <t>身體組成分析儀－腰臀圍比</t>
+  </si>
+  <si>
+    <t>null#WHR</t>
+  </si>
+  <si>
+    <t>PASportObservationWeight</t>
+  </si>
+  <si>
+    <t>基礎生理量測－體重</t>
+  </si>
+  <si>
+    <t>null#29463-7</t>
+  </si>
+  <si>
+    <t>PASportObservationWeightTraining</t>
+  </si>
+  <si>
+    <t>運動項目－重量訓練</t>
+  </si>
+  <si>
+    <t>null#LA11839-0</t>
+  </si>
+  <si>
+    <t>身體活動量測-重量訓練代碼系統#training-wt</t>
+  </si>
+  <si>
+    <t>身體活動量測-重量訓練代碼系統#sets</t>
+  </si>
+  <si>
+    <t>LOINC#100298-9</t>
   </si>
 </sst>
 </file>
@@ -223,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -334,6 +733,1896 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
